--- a/data/annotations/new_annotation_structure_out/iteration_14/iteration_14_mistral-large-2411-2.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_14/iteration_14_mistral-large-2411-2.xlsx
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
